--- a/src/main/java/lomt/pearson/fileupload/english/gse/reingestion/GSERe-ingestion_URN.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/english/gse/reingestion/GSERe-ingestion_URN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -182,10 +182,10 @@
     <t>${gsePreviewBean.academicSkills}</t>
   </si>
   <si>
-    <t>urn:pearson:educationalgoal:4499e504-e728-4029-841e-f505f90ada69</t>
-  </si>
-  <si>
-    <t>GLSI6666A0</t>
+    <t>urn:pearson:educationalgoal:71125a08-474f-4348-8555-22022f44c741</t>
+  </si>
+  <si>
+    <t>GLSI6666D0</t>
   </si>
   <si>
     <t>GLSI0219c</t>
@@ -203,7 +203,7 @@
     <t>Published</t>
   </si>
   <si>
-    <t>Can respond to ideas and suggestions in informal discussions UPDATE 24 UPDATED-284</t>
+    <t>Can respond to ideas and suggestions in informal discussions UPDATE 24 UPDATED-120</t>
   </si>
   <si>
     <t>(C)</t>
@@ -218,58 +218,61 @@
     <t>Language functions&gt;Explaining|Language functions&gt;Negotiating, complaining and dealing with problems</t>
   </si>
   <si>
+    <t>Socialising at work&gt;Making conversation|Discussions&gt;Take part in business discussions</t>
+  </si>
+  <si>
+    <t>Academic Text Strategies&gt;Prediction|Academic Text Strategies&gt;Skimming for main idea/gist|Academic strategies&gt;Summarising</t>
+  </si>
+  <si>
+    <t>F3.2</t>
+  </si>
+  <si>
+    <t>Source Descriptor updated</t>
+  </si>
+  <si>
+    <t>Apriil 2015 IRT Analysis Changes. Previous Score/CEFR were 55;B1+: Previous status was Alt version : Reasons for other changes: Was a band descriptor, use new wording</t>
+  </si>
+  <si>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>batch_06</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Can use '(in order) to' to express purpose and intention.UPDATED-445</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>B2 (59-66)</t>
+  </si>
+  <si>
     <t>Discussions&gt;Take part in business discussions|Socialising at work&gt;Making conversation</t>
   </si>
   <si>
-    <t>Academic strategies&gt;Summarising|Academic Text Strategies&gt;Skimming for main idea/gist|Academic Text Strategies&gt;Prediction</t>
-  </si>
-  <si>
-    <t>F3.2</t>
-  </si>
-  <si>
-    <t>Source Descriptor updated</t>
+    <t>Comprehension&gt;Identifying specific details</t>
+  </si>
+  <si>
+    <t>N2.1; N2.2; N3.14</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>source des|source des1</t>
+  </si>
+  <si>
+    <t>CEFR-J (adapted)</t>
   </si>
   <si>
     <t>A1 (22-29)</t>
-  </si>
-  <si>
-    <t>Apriil 2015 IRT Analysis Changes. Previous Score/CEFR were 55;B1+: Previous status was Alt version : Reasons for other changes: Was a band descriptor, use new wording</t>
-  </si>
-  <si>
-    <t>abcd123</t>
-  </si>
-  <si>
-    <t>batch_06</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t>Can use '(in order) to' to express purpose and intention.UPDATED-442</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>B2 (59-66)</t>
-  </si>
-  <si>
-    <t>Comprehension&gt;Identifying specific details</t>
-  </si>
-  <si>
-    <t>N2.1; N2.2; N3.14</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>source des|source des1</t>
-  </si>
-  <si>
-    <t>CEFR-J (adapted)</t>
   </si>
   <si>
     <t>North USA</t>
@@ -807,37 +810,37 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
       </c>
       <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
       </c>
       <c r="I2" t="s">
         <v>63</v>
       </c>
       <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
         <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
       </c>
       <c r="L2" t="s">
         <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
         <v>80</v>
@@ -861,10 +864,10 @@
         <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="Z2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
